--- a/client/public/templates/قالب_4.xlsx
+++ b/client/public/templates/قالب_4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\قوالب\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\محمد\قوالب\client\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{793F087E-00D5-4F1B-B50D-F0C0D43E5E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7F2A67-638A-486D-AD11-7B1B680D7041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{34EBFA33-6A0D-459A-AB7B-B33E1F3520BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E7BDC555-D9F8-40C0-AD00-CC458016115C}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>الأحد</t>
+  </si>
+  <si>
+    <t>الأثنين</t>
+  </si>
+  <si>
+    <t>الثلاثاء</t>
+  </si>
+  <si>
+    <t>الأربعاء</t>
+  </si>
+  <si>
+    <t>الخميس</t>
+  </si>
   <si>
     <t xml:space="preserve">جدول الصف: </t>
   </si>
@@ -52,24 +67,6 @@
   </si>
   <si>
     <t>السابعة</t>
-  </si>
-  <si>
-    <t>الأحد</t>
-  </si>
-  <si>
-    <t>الأثنين</t>
-  </si>
-  <si>
-    <t>الثلاثاء</t>
-  </si>
-  <si>
-    <t>الأربعاء</t>
-  </si>
-  <si>
-    <t>الخميس</t>
-  </si>
-  <si>
-    <t>كمياء</t>
   </si>
 </sst>
 </file>
@@ -97,34 +94,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="El Messiri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="El Messiri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Cairo"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Cairo ExtraBold"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Graphic School"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF0070C0"/>
-      <name val="El Messiri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="El Messiri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF0070C0"/>
-      <name val="Cairo ExtraBold"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="Cairo"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,7 +127,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -144,15 +144,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -170,35 +161,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -515,132 +542,187 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A9F64C-8E6C-4853-ACD4-4F186DA00F94}">
-  <dimension ref="B1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0086826-3D7A-44F6-AF3B-9F5085E89A32}">
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.88671875" defaultRowHeight="36.6" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="9" width="11.88671875" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
     </row>
-    <row r="2" spans="2:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+    <row r="5" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
     </row>
-    <row r="3" spans="2:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
+    <row r="6" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+    </row>
+    <row r="7" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+    </row>
+    <row r="8" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="2:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="2:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="2:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="2:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:I2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>